--- a/data/trans_orig/ip24_2023_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/ip24_2023_R-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8C47D52-5DDD-4154-BBF7-862FF33E1598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B3032DD-55B0-49DB-86D6-60FBF32202CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2220B48B-7CB3-469F-9D1A-BB0C62C94CF1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A56FF443-0616-48D3-BAAA-7FF5DDEB4046}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>3,14%</t>
   </si>
   <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
   </si>
   <si>
     <t>5,56%</t>
   </si>
   <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
   </si>
   <si>
     <t>4,35%</t>
   </si>
   <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>96,86%</t>
   </si>
   <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
   </si>
   <si>
     <t>94,44%</t>
   </si>
   <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
   </si>
   <si>
     <t>95,65%</t>
   </si>
   <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>6,65%</t>
   </si>
   <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
   </si>
   <si>
     <t>5,16%</t>
   </si>
   <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
   </si>
   <si>
     <t>5,94%</t>
   </si>
   <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
   </si>
   <si>
     <t>93,35%</t>
   </si>
   <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
   </si>
   <si>
     <t>94,84%</t>
   </si>
   <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
   </si>
   <si>
     <t>94,06%</t>
   </si>
   <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -194,55 +194,55 @@
     <t>14,04%</t>
   </si>
   <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
   </si>
   <si>
     <t>10,25%</t>
   </si>
   <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
   </si>
   <si>
     <t>12,27%</t>
   </si>
   <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
   </si>
   <si>
     <t>85,96%</t>
   </si>
   <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
   </si>
   <si>
     <t>89,75%</t>
   </si>
   <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
   </si>
   <si>
     <t>87,73%</t>
   </si>
   <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -251,109 +251,109 @@
     <t>17,84%</t>
   </si>
   <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
   </si>
   <si>
     <t>10,17%</t>
   </si>
   <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
   </si>
   <si>
     <t>14,21%</t>
   </si>
   <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
   </si>
   <si>
     <t>82,16%</t>
   </si>
   <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
   </si>
   <si>
     <t>89,83%</t>
   </si>
   <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
   </si>
   <si>
     <t>85,79%</t>
   </si>
   <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
   </si>
   <si>
     <t>12,93%</t>
   </si>
   <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
   </si>
   <si>
     <t>8,58%</t>
   </si>
   <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
   </si>
   <si>
     <t>10,86%</t>
   </si>
   <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
   </si>
   <si>
     <t>87,07%</t>
   </si>
   <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
   </si>
   <si>
     <t>91,42%</t>
   </si>
   <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
   </si>
   <si>
     <t>89,14%</t>
   </si>
   <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -768,7 +768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EAE8D88-9B4D-4364-9BF3-B0D14B8F4A84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE80E06-E925-487D-A58B-B0244483139C}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/ip24_2023_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/ip24_2023_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B3032DD-55B0-49DB-86D6-60FBF32202CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24781CC7-4CB7-41F1-B441-564E309D0CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A56FF443-0616-48D3-BAAA-7FF5DDEB4046}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{779C5B53-AF8E-4112-97E9-345CA4BDE614}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
   <si>
     <t>Menores que no realizan actividad física en su tiempo libre en 2023 (Tasa respuesta: 99,38%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,226 +134,220 @@
     <t>3-7</t>
   </si>
   <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
+    <t>10,64%</t>
   </si>
   <si>
     <t>6,84%</t>
   </si>
   <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
   </si>
   <si>
     <t>93,16%</t>
   </si>
   <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
   </si>
   <si>
     <t>10,86%</t>
   </si>
   <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
   </si>
   <si>
     <t>89,14%</t>
   </si>
   <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -768,7 +762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE80E06-E925-487D-A58B-B0244483139C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA22C25-07D7-4729-8A32-FA73F41D9949}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -886,10 +880,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>1748</v>
+        <v>3211</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -901,10 +895,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>3104</v>
+        <v>1754</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -919,7 +913,7 @@
         <v>9</v>
       </c>
       <c r="N4" s="7">
-        <v>4852</v>
+        <v>4965</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -937,10 +931,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D5" s="7">
-        <v>53974</v>
+        <v>52789</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -952,10 +946,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="I5" s="7">
-        <v>52749</v>
+        <v>56817</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -970,7 +964,7 @@
         <v>207</v>
       </c>
       <c r="N5" s="7">
-        <v>106723</v>
+        <v>109606</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -988,25 +982,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>106</v>
+      </c>
+      <c r="D6" s="7">
+        <v>56000</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>110</v>
       </c>
-      <c r="D6" s="7">
-        <v>55722</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>106</v>
-      </c>
       <c r="I6" s="7">
-        <v>55853</v>
+        <v>58571</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1021,7 +1015,7 @@
         <v>216</v>
       </c>
       <c r="N6" s="7">
-        <v>111575</v>
+        <v>114571</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1041,10 +1035,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="7">
-        <v>11624</v>
+        <v>8168</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1056,10 +1050,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I7" s="7">
-        <v>8193</v>
+        <v>12131</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1074,7 +1068,7 @@
         <v>35</v>
       </c>
       <c r="N7" s="7">
-        <v>19817</v>
+        <v>20299</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1092,10 +1086,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="D8" s="7">
-        <v>163222</v>
+        <v>151131</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1107,10 +1101,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="I8" s="7">
-        <v>150572</v>
+        <v>169959</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1125,7 +1119,7 @@
         <v>498</v>
       </c>
       <c r="N8" s="7">
-        <v>313793</v>
+        <v>321090</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1143,25 +1137,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>258</v>
+      </c>
+      <c r="D9" s="7">
+        <v>159299</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>275</v>
       </c>
-      <c r="D9" s="7">
-        <v>174846</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>258</v>
-      </c>
       <c r="I9" s="7">
-        <v>158765</v>
+        <v>182090</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1176,7 +1170,7 @@
         <v>533</v>
       </c>
       <c r="N9" s="7">
-        <v>333610</v>
+        <v>341389</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1196,10 +1190,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D10" s="7">
-        <v>28304</v>
+        <v>18422</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1211,10 +1205,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I10" s="7">
-        <v>18046</v>
+        <v>29941</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1229,7 +1223,7 @@
         <v>61</v>
       </c>
       <c r="N10" s="7">
-        <v>46350</v>
+        <v>48363</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1247,10 +1241,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D11" s="7">
-        <v>173286</v>
+        <v>154650</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1262,10 +1256,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I11" s="7">
-        <v>158067</v>
+        <v>181612</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1280,7 +1274,7 @@
         <v>414</v>
       </c>
       <c r="N11" s="7">
-        <v>331353</v>
+        <v>336262</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1298,25 +1292,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>233</v>
+      </c>
+      <c r="D12" s="7">
+        <v>173072</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>242</v>
       </c>
-      <c r="D12" s="7">
-        <v>201590</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>233</v>
-      </c>
       <c r="I12" s="7">
-        <v>176113</v>
+        <v>211553</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1331,7 +1325,7 @@
         <v>475</v>
       </c>
       <c r="N12" s="7">
-        <v>377703</v>
+        <v>384625</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1351,49 +1345,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="D13" s="7">
-        <v>51626</v>
+        <v>26046</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>67</v>
+      </c>
+      <c r="I13" s="7">
+        <v>52963</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="7">
-        <v>41</v>
-      </c>
-      <c r="I13" s="7">
-        <v>26514</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>108</v>
       </c>
       <c r="N13" s="7">
-        <v>78139</v>
+        <v>79009</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1402,49 +1396,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>301</v>
+      </c>
+      <c r="D14" s="7">
+        <v>249412</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="7">
         <v>275</v>
       </c>
-      <c r="D14" s="7">
-        <v>237798</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="I14" s="7">
+        <v>252520</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="7">
-        <v>301</v>
-      </c>
-      <c r="I14" s="7">
-        <v>234119</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>576</v>
       </c>
       <c r="N14" s="7">
-        <v>471918</v>
+        <v>501931</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1456,7 +1450,7 @@
         <v>342</v>
       </c>
       <c r="D15" s="7">
-        <v>289424</v>
+        <v>275458</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1471,7 +1465,7 @@
         <v>342</v>
       </c>
       <c r="I15" s="7">
-        <v>260633</v>
+        <v>305483</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1486,7 +1480,7 @@
         <v>684</v>
       </c>
       <c r="N15" s="7">
-        <v>550057</v>
+        <v>580940</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1506,49 +1500,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>89</v>
+      </c>
+      <c r="D16" s="7">
+        <v>55847</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="7">
         <v>124</v>
       </c>
-      <c r="D16" s="7">
-        <v>93301</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="I16" s="7">
+        <v>96789</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H16" s="7">
-        <v>89</v>
-      </c>
-      <c r="I16" s="7">
-        <v>55857</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>213</v>
       </c>
       <c r="N16" s="7">
-        <v>149158</v>
+        <v>152636</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1557,49 +1551,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>850</v>
+      </c>
+      <c r="D17" s="7">
+        <v>607982</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="7">
         <v>845</v>
       </c>
-      <c r="D17" s="7">
-        <v>628281</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="I17" s="7">
+        <v>660908</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H17" s="7">
-        <v>850</v>
-      </c>
-      <c r="I17" s="7">
-        <v>595506</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>1695</v>
       </c>
       <c r="N17" s="7">
-        <v>1223788</v>
+        <v>1268890</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1608,25 +1602,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>939</v>
+      </c>
+      <c r="D18" s="7">
+        <v>663829</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>969</v>
       </c>
-      <c r="D18" s="7">
-        <v>721582</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>939</v>
-      </c>
       <c r="I18" s="7">
-        <v>651363</v>
+        <v>757697</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1641,7 +1635,7 @@
         <v>1908</v>
       </c>
       <c r="N18" s="7">
-        <v>1372946</v>
+        <v>1421526</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1655,7 +1649,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
